--- a/РАБОЧИЙ СТОЛ/12,09,25 Горняк(Донецк) ЗПФ на погрузку с филиалами на 29,09,25/Заказ ГОРНЯК Доставка Донецк 02.10.25.xlsx
+++ b/РАБОЧИЙ СТОЛ/12,09,25 Горняк(Донецк) ЗПФ на погрузку с филиалами на 29,09,25/Заказ ГОРНЯК Доставка Донецк 02.10.25.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.29.245\отдел логистики\Мельников А.В\Стародворье\НОВОЕ ВРЕМЯ\62-02.10.25_Д\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\172.16.29.245\отдел логистики\Мельников А.В\Стародворье\НОВОЕ ВРЕМЯ\63-02.10.25_Д\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1202,10 +1202,10 @@
   <dimension ref="A1:Y80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="7" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="7" topLeftCell="C35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
-      <selection pane="bottomRight" activeCell="S48" sqref="S48"/>
+      <selection pane="bottomRight" activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -2674,18 +2674,20 @@
       <c r="H39" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I39" s="7"/>
+      <c r="I39" s="7">
+        <v>42</v>
+      </c>
       <c r="J39" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>100.8</v>
       </c>
       <c r="K39" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>112.56</v>
       </c>
       <c r="L39" s="48">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M39" s="29"/>
       <c r="N39" s="8"/>
@@ -2716,18 +2718,20 @@
       <c r="H40" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I40" s="7"/>
+      <c r="I40" s="7">
+        <v>14</v>
+      </c>
       <c r="J40" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="K40" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>51.850399999999993</v>
       </c>
       <c r="L40" s="48">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M40" s="29"/>
       <c r="N40" s="8"/>
@@ -2761,7 +2765,9 @@
       <c r="H41" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I41" s="7"/>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
       <c r="J41" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2805,7 +2811,9 @@
       <c r="H42" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I42" s="7"/>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
       <c r="J42" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2850,18 +2858,20 @@
       <c r="H43" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="I43" s="7"/>
+      <c r="I43" s="7">
+        <v>84</v>
+      </c>
       <c r="J43" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>141.12</v>
       </c>
       <c r="K43" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>176.55119999999999</v>
       </c>
       <c r="L43" s="48">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="M43" s="29"/>
       <c r="N43" s="8"/>
@@ -2895,7 +2905,9 @@
       <c r="H44" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I44" s="7"/>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
       <c r="J44" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -2940,18 +2952,20 @@
       <c r="H45" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I45" s="7"/>
+      <c r="I45" s="7">
+        <v>448</v>
+      </c>
       <c r="J45" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1344</v>
       </c>
       <c r="K45" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1517.8240000000001</v>
       </c>
       <c r="L45" s="48">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>6.4</v>
       </c>
       <c r="M45" s="29"/>
       <c r="N45" s="8"/>
@@ -2985,7 +2999,9 @@
       <c r="H46" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I46" s="7"/>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
       <c r="J46" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3030,7 +3046,9 @@
       <c r="H47" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="I47" s="7"/>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
       <c r="J47" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3074,7 +3092,9 @@
       <c r="H48" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I48" s="7"/>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
       <c r="J48" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3118,7 +3138,9 @@
       <c r="H49" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I49" s="7"/>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
       <c r="J49" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3160,7 +3182,9 @@
       <c r="H50" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I50" s="7"/>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
       <c r="J50" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3203,18 +3227,20 @@
       <c r="H51" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I51" s="7"/>
+      <c r="I51" s="7">
+        <v>204</v>
+      </c>
       <c r="J51" s="77">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1224</v>
       </c>
       <c r="K51" s="48">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1277.04</v>
       </c>
       <c r="L51" s="48">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2.4285714285714284</v>
       </c>
       <c r="M51" s="29"/>
       <c r="N51" s="8"/>
@@ -3245,7 +3271,9 @@
       <c r="H52" s="73" t="s">
         <v>55</v>
       </c>
-      <c r="I52" s="7"/>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
       <c r="J52" s="77">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -3544,23 +3572,23 @@
       <c r="H59" s="25"/>
       <c r="I59" s="25">
         <f>SUM(I8:I58)</f>
-        <v>1502</v>
+        <v>2294</v>
       </c>
       <c r="J59" s="30">
         <f>SUM(J8:J58)</f>
-        <v>5820.6</v>
+        <v>8672.52</v>
       </c>
       <c r="K59" s="30">
         <f>SUM(K8:K58)</f>
-        <v>6116.2079999999996</v>
+        <v>9252.0336000000025</v>
       </c>
       <c r="L59" s="49">
         <f>SUM(L8:L58)</f>
-        <v>12.587301587301587</v>
+        <v>22.815873015873013</v>
       </c>
       <c r="M59" s="47">
         <f>ROUNDUP(L59,0)</f>
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N59" s="11"/>
       <c r="O59" s="2"/>
@@ -3580,7 +3608,7 @@
       <c r="K60" s="12"/>
       <c r="L60" s="31">
         <f>L59*20+K59</f>
-        <v>6367.9540317460314</v>
+        <v>9708.3510603174618</v>
       </c>
       <c r="M60" s="28"/>
       <c r="N60" s="9"/>
